--- a/rhla_analysis/rhla1_3_normal_result/k5.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k5.xlsx
@@ -457,35 +457,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01579932155723111</v>
+        <v>0.01579932155723112</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2774754700756756</v>
+        <v>0.2774754700756755</v>
       </c>
       <c r="C2" t="n">
         <v>0.1172208013640239</v>
       </c>
       <c r="D2" t="n">
-        <v>17.56249273556176</v>
+        <v>17.56249273556173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02133376211393972</v>
+        <v>0.0213337621139398</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2957351435786132</v>
+        <v>0.2957351435786133</v>
       </c>
       <c r="C3" t="n">
         <v>0.1138107416879795</v>
       </c>
       <c r="D3" t="n">
-        <v>13.86230623549405</v>
+        <v>13.862306235494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01719279567757868</v>
+        <v>0.01719279567757865</v>
       </c>
       <c r="B4" t="n">
         <v>0.285850806126282</v>
@@ -494,12 +494,12 @@
         <v>0.1005967604433078</v>
       </c>
       <c r="D4" t="n">
-        <v>16.62619689589304</v>
+        <v>16.62619689589308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01662321983250073</v>
+        <v>0.01662321983250069</v>
       </c>
       <c r="B5" t="n">
         <v>0.2923891419748291</v>
@@ -508,12 +508,12 @@
         <v>0.1167945439045183</v>
       </c>
       <c r="D5" t="n">
-        <v>17.58920022240019</v>
+        <v>17.58920022240023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.009545564350218892</v>
+        <v>0.009545564350218872</v>
       </c>
       <c r="B6" t="n">
         <v>0.2808292817578191</v>
@@ -522,12 +522,12 @@
         <v>0.1108269394714407</v>
       </c>
       <c r="D6" t="n">
-        <v>29.41987204259739</v>
+        <v>29.41987204259745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01776564172792625</v>
+        <v>0.01776564172792635</v>
       </c>
       <c r="B7" t="n">
         <v>0.2855336361674278</v>
@@ -536,12 +536,12 @@
         <v>0.118073316283035</v>
       </c>
       <c r="D7" t="n">
-        <v>16.072238793299</v>
+        <v>16.07223879329892</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.007769735010535715</v>
+        <v>0.007769735010535729</v>
       </c>
       <c r="B8" t="n">
         <v>0.294166043444735</v>
@@ -550,12 +550,12 @@
         <v>0.129156010230179</v>
       </c>
       <c r="D8" t="n">
-        <v>37.86049885174302</v>
+        <v>37.86049885174295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01546695123232711</v>
+        <v>0.015466951232327</v>
       </c>
       <c r="B9" t="n">
         <v>0.2599665179714283</v>
@@ -564,12 +564,12 @@
         <v>0.1074168797953964</v>
       </c>
       <c r="D9" t="n">
-        <v>16.80787079926123</v>
+        <v>16.80787079926134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01791962668408272</v>
+        <v>0.01791962668408267</v>
       </c>
       <c r="B10" t="n">
         <v>0.3052490989760918</v>
@@ -578,21 +578,21 @@
         <v>0.1044330775788576</v>
       </c>
       <c r="D10" t="n">
-        <v>17.03434476384669</v>
+        <v>17.03434476384673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02961836770410409</v>
+        <v>0.02961836770410447</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2778822651893996</v>
+        <v>0.2778822651893997</v>
       </c>
       <c r="C11" t="n">
         <v>0.09718670076726342</v>
       </c>
       <c r="D11" t="n">
-        <v>9.382092489549809</v>
+        <v>9.382092489549693</v>
       </c>
     </row>
   </sheetData>
